--- a/src/main/java/corecentra/qaqctool/storage/lookup_schema.xlsx
+++ b/src/main/java/corecentra/qaqctool/storage/lookup_schema.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MS\3_Spring2022\5500\old project\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MS\3_Spring2022\5500\qaqctool\src\main\java\corecentra\qaqctool\storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC72FE5-D754-4BA7-9726-8BCCED70F2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2128BA9B-5C77-4D86-BBFF-FC94E3D51899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" tabRatio="716" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" tabRatio="716" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects" sheetId="9" r:id="rId1"/>
@@ -18,14 +18,14 @@
     <sheet name="Impacts" sheetId="11" r:id="rId3"/>
     <sheet name="Tasks" sheetId="12" r:id="rId4"/>
     <sheet name="Donors" sheetId="13" r:id="rId5"/>
-    <sheet name="Contributions" sheetId="14" r:id="rId6"/>
+    <sheet name="Donor Contribution" sheetId="14" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Node ID</t>
   </si>
@@ -45,27 +45,6 @@
     <t>Project Name</t>
   </si>
   <si>
-    <t>383</t>
-  </si>
-  <si>
-    <t>level 2</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Event</t>
-  </si>
-  <si>
-    <t>PRJ0118</t>
-  </si>
-  <si>
-    <t>test project 1</t>
-  </si>
-  <si>
-    <t>test project 2</t>
-  </si>
-  <si>
     <t>Result ID</t>
   </si>
   <si>
@@ -91,44 +70,18 @@
   </si>
   <si>
     <t>Contribution ID</t>
-  </si>
-  <si>
-    <t>384</t>
-  </si>
-  <si>
-    <t>level 3</t>
-  </si>
-  <si>
-    <t>PRJ0119</t>
-  </si>
-  <si>
-    <t>385</t>
-  </si>
-  <si>
-    <t>level 4</t>
-  </si>
-  <si>
-    <t>PRJ0120</t>
-  </si>
-  <si>
-    <t>test project 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
@@ -150,7 +103,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -165,38 +118,20 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -419,8 +354,8 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.75"/>
@@ -435,82 +370,25 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.75"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.75"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.75"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -521,23 +399,23 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>14</v>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -550,23 +428,23 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:R2"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>16</v>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -585,17 +463,17 @@
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>18</v>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -613,17 +491,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="4"/>
+    <col min="1" max="1" width="15.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>20</v>
+      <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -635,27 +513,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7C701C-4CB2-4A41-8194-1C8622CC74EB}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.31640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="13.31640625" style="4"/>
+    <col min="1" max="1" width="15.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="13.31640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>21</v>
+      <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
